--- a/게임 플레이 목록_240328.xlsx
+++ b/게임 플레이 목록_240328.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE07CE2-0E9F-4042-90D8-126C6C0DA825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDF239-D0DA-4B94-AB36-B99DA6073773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="16200" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
   <sheets>
     <sheet name="게임 플레이 목록" sheetId="1" r:id="rId1"/>
@@ -322,9 +322,6 @@
     <t>초보</t>
   </si>
   <si>
-    <t>전장 콘텐츠 메인 플레이</t>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,104 +442,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 완성도 높은 초반 메인스트림(시나리오)과 환생이라는 레벨 초기화 및 누적 시스템으로 다양한 직업을 플레이 가능해 다른 게임에서 보기 힘든 매력
-2. 누적된 유저들 간의 스펙 격차와 옛날 엔진 그래픽으로 인해 신규 및 복귀 유저의 진입 어려움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 레이드에 대한 부담감 줄이기 위해 레이드 콘텐츠의 난이도(학습량) 낮췄지만, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>콘텐츠 추가와 누적된 요구 학습량으로 기존 장점 퇴색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 레이드 외 기존 콘텐츠는 우선 수위가 밀려 우선순위가 밀려 구색 맞추기 용도
-3. 유저 정착을 외부 정보 획득처(유튜브 등)에 의존</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>불살 엔딩 클리어 / 몰살 엔딩 중 중단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. RPG 시스템에 전투는 슈팅, 맵 기믹은 퍼즐을 활용, 보스 기믹은 기존에 존재하는 미니게임이지만 스토리적 요소를 조합해 특별해 보이도록 만듦
-2. 몬스터 사냥이나 레벨 상승 같이 흔히 생각하는 RPG의 특징을 뒤틀고, 몬스터 외형의 NPC가 호감가도록 만드는 뛰어난 스토리텔링이 특징
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리를 통해 도트 그래픽에도 유저들의 2차 창작을 이끌어냄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 뛰어난 스토리와 적당한 게임성이 있다면 흥행할 수 있다는 예시</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 낙하물 피하기와 누킹 타임(통칭 극딜)으로 이루어진 레이드 시스템과 사냥을 통한 재화 획득과 레벨 상승
-2. 사냥 및 부캐 육성의 높은 피로도와 다중 강화 BM에 불구하고 메이플스토리만의 2D 코디 시스템과 커뮤니티(길드) 등으로 유저 잔존 유도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 2D 벨트스크롤 RPG로 간단한 조작과 화려한 도트 그래픽, 개성적인 장비 옵션이 장점, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매 시즌 장비 소프트리셋 및 이벤트로 이전 시즌 장비 지급해 신규 유저 진입이 쉬움</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 재화를 소모해 입장한 던전에서 낮은 확률로 해당 시즌 장비(에픽 아이템)를 획득하는 방식, 획득을 잘 하면 금방 맞추지만 아닌 경우 최종 장비 맞추는데 기약이 없음
-3. 시너지 딜러 및 버퍼의 경우 퓨어 딜러보다 레이드 파티 입장에 유리하지만, 솔플 콘텐츠에서 퓨어 딜러보다 콘텐츠 클리어가 불리함</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -583,38 +483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 특색있는 던전 맵과 캐릭터의 수려한 3D 모델링, 보스 부위파괴 시스템과 주변 환경 상호 작용 가능한 보스전 등 액션성 강조한 게임성과 마비노기라는 익숙한 IP 활용해 진입 유도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 블리자드 IP를 이용한 AOS, 다른 블리자드 게임에서 등장하는 다양한 영웅을 플레이, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀과 경험치 공유, 아이템 대체한 특성트리 시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으로 진입 장벽은 낮음
-2. 앞서 언급한 점들로 인한 변수 다양성이 적은 것과 공격 타격감이 거의 없어 리그 오브 레전드에 비해 게임성이 떨어지는 편</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. 다양한 아이템 조합과 챔피언 수, 5:5 PVP라는 여러 변수로 매판마다 다른 플레이 경험을 제공
 2. 위 요소들을 학습해야 하는 스트레스 존재, 학습량을 줄이는 외부 프로그램이 존재하지만 인게임 분위기처럼 처리할 수 없는 스트레스 또한 존재 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,45 +532,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. 에임과 사운드 플레이 같이 은엄폐 플레이에 중점을 두던 기존 FPS와 달리, RPG 같이 스킬과 역할군을 둬 FPS에 익숙하지 않아도 쉽게 플레이 가능
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>힐러와 탱커는 딜러에 비해 직관적인 재미를 느끼기 어려워 유저 비율이 딜러에 몰리는 경향</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 있음, 이를 해결하기 위해 힐러와 탱커에게 뽑기 박스를 더 주는 방안을 모색했지만 근본적인 해결은 되지 않음</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1인칭 퍼즐 플랫포머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 포탈건이라는 아이템을 사용해 입구와 출구를 만들어 퍼즐을 깨는 플랫포머 게임
-2. 맞아 죽을 일은 잘 없지만 입구와 출구 이동 시 상승하는 물리력을 이용해야 하는 퍼즐이 있어서 퍼즐 난이도에 막혀 그만두는 경우가 많음 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 총이나 방탄복 같이 장비를 파밍해 다른 유저들 사이에서 홀로 살아남으면 승리
-2. 기본적으로 FPS 시스템을 따르고 있어 에임 같은 피지컬적 요소가 부족하다면 재미를 느끼기 어려움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -744,63 +574,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 삼국지 IP 이용한 무쌍류 게임, 선택한 장수로 적진을 쓸어버리며 유명 장수인 여포와 일기토도 가능
-2. 바람이 몰려와서 유저 캐릭터가 뒤로 밀리는 와중에 유저만 노리는 궁병의 공격으로 넉백당해 처음으로 되돌아가는 구간처럼 가끔 불쾌한 구간이 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쌍검 메인 플레이 / 헌팅 액션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. 서브컬쳐를 겨냥한 개성적인 실험체 디자인과 아이템 재료 파밍과 사냥 시스템을 통해 레벨과 장비 등급을 높혀 대규모 교전을 즐기는 재미
-2. 지역에 따라 다른 파밍 가능 장비 재료와 실험체 따라 다른 패시브 및 특성과 무기, 전술 스킬 등 학습량 자체는 많지만, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인게임에서 재료 파밍 이동 루트와 다른 유저의 리플레이 정보를 제공하는 등 학습량을 낮추는 시스템 존재 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-3. 인게임에 영향 미치지 않는 시즌 패스인 ER 패스와 실험체 스킨과 이모티콘 등을 주 BM으로 사용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1회차 클리어 / 법정 배틀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 다양한 무기를 사용해 몬스터를 토벌하고 해당 몬스터의 소재로 새로운 장비를 제작해 다음 몬스터를 토벌하는 구조, 몬스터끼리도 상호작용해 서로 싸우기도 하는 등 세세한 시스템이 잘 갖춰져 있음
-2. 무기마다 익숙해지기까지 시간이 걸리고 매 구간마다 몬스터를 극복하는 구조, 이런 점이 진입 장벽으로 작용할 수 있어 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확장팩 발매 시 이전 시즌 장비를 패지키로 판매해 빠르게 진입하도록 유도</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -955,39 +733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. 잔잔한 피아노 곡을 중심의 스토리가 진행되는 비주얼 노벨에 가까운 게임
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>큰 게임성이 없어도 스토리텔링과 BGM만으로도 게임이 흥행할 수 있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>는 예시</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 미술관에 갇혀 살아움직이는 미술품으로부터 살아남는 호러 어드벤쳐 게임
-2. 주인공 이브와 서브 주인공 게리를 직접 조작하며 한쪽의 플레이가 반대쪽에 영향을 미침, 행동에 따라 엔딩 분기가 갈리며 주인공이 교체되기도 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>87렙(만렙), 인세인 난이도 메인 클리어, 총력전 플레티넘 (레이드 최고등급)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,75 +862,6 @@
   </si>
   <si>
     <t>퀴즈 &amp; 카드 배틀 롤플레잉 게임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 제시되는 분야의 퀴즈를 맞히면 공격하는 방식, 속성 시스템이 있어 데미지 추가나 반감이 적용되며 일정 시간 이하로 맞출 시 데미지 상승
-2. 전혀 모르는 분야의 퀴즈가 진입장벽이 될 수 있지만, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>외부 사이트를 통해 퀴즈 정답을 알 수 있어 검색 가능한 환경에선 진입장벽이 낮은 편</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-3. 매일 접속 시 일정한 재화를 주는 월정액과 재화 구매 BM을 통해 캐릭터 카드 뽑기가 메인 BM이나, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이벤트에 따라 좋은 성능의 캐릭터 카드를 제공해 과금하지 않아도 플레이 가능</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 2D 도트 그래픽의 캐릭터를 배치해 몬스터 웨이브를 처치하며 진행
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>블록과 특수 스킬(궁극기) 존재해 블록 스킬 일정량 소모시 해당 캐릭터 특수 스킬 블록이 생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>됨, 블록 스킬은 최대 3개까지 이어진 개수(체인)가 늘어날수록 강화 스킬 사용 가능
-3. 4성 이상의 캐릭터는 패시브가 존재해 블록 스킬과 연계되는 등 플레이 다양성 존재</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1231,35 +907,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. 인기 IP를 기반으로 캐릭터의 다양한 클래스(직업) 상성과 3색의 카드 목록 중 3개를 골라 적을 처치해 스토리 및 재화 획득 임무 수행
-2. 클래스 상성, 예장(장비), 마스터(플레이어) 스킬 등 요소와 인게임에서 3색 카드의 사용 순서 등 다양한 요소로 단순해보이는 구성과 달리 파고 들면 복잡한 게임성 존재
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인기 IP의 애정 캐릭터와 스토리로 게임 충성도를 만드는 구조</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로, 애정 캐릭터가 없거나 스토리가 마음에 들지 않으면 진입하기 힘들 수 있음</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>육성 시뮬레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1284,11 +931,6 @@
   </si>
   <si>
     <t>앱 무료화 전 구매 // 1회차 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 피아노 음색 위주의 건반형 리듬 게임으로 탭과 슬라이드 노트를 사용, 게임을 진행해 나무를 성장시켜 스토리를 보는 방식
-2.BM은  앱 구매와 DLC 추가 곡 다운로드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1441,65 +1083,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 피처폰 시절 버튼 하나로 플레이 하는 간편한 게임성과 대비되는 높은 난이도
-2. 일직선으로 계속 달릴 뿐이지만 상하좌우 화면을 계속 바꿔가며 화면을 회전시켜 플레이하게 만드는 당시에 놀라운 게임성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>육성 시뮬레이션
 마력/마나/체력/힘(공격력)/방어/민첩/피로/명성
 모든 엔딩 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. 100일동안 캐릭터 육성에 따라 엔딩이 달라지는 멀티 엔딩, 레벨이 없는 대신 프린세스 메이커와 같이 수련이나 아이템을 통해 능력치를 상승시키는 시스템 존재
-2. 마법(스킬)이 존재, 정신 지배라는 스킬로 몬스터를 처치하면 펫으로 사용 가능, 마법은 중심/중부/외부문양으로 구성돼 있으며 각각 스킬, 고정 데미지, 마력 퍼센트 데미지 추가
-3. 초기 인디 게임의 한계로 각종 버그와 인게임 그래픽 등 아쉬운 점이 있지만, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빌드를 만들 수 있는 수련 시스템과 엔딩 이후 도전 가능한 보스 등 2회차 요소 플레이 요소가 존재해 계속 플레이하도록 만듦</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 전작과 비슷한 시스템에서 100일의 시간 제한이 사라지고 발전한 그래픽과 UI, 전작과 같은 시간대에 진행되는 스토리로 전작의 주인공을 만날 수 있는 등 다양한 변경점 존재
-2. 마법 공격용 무기 외에도 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물리 공격용 무기가 추가 및 수련 시스템에 시간 제한이 사라져 원하는 플레이 빌드를 극한까지 만들 수 있음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-3. 멀티 엔딩이던 전작과 달리 하나의 엔딩으로 만들었음에도 엔딩 추가 요소 및 시간 제한의 삭제로 게임에 몰입하는 시간이 늘어남</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>육성 시뮬레이션
 체력/마나/마력/힘(공격력)/민첩/방어/명성
 엔딩 추가 요소 및 이어하기(1회차 이후) 모든 요소 클리어, 모든 능력치 최대치까지 육성</t>
@@ -1612,24 +1201,530 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3DS // 만지는 순간 액션 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 5초의 짧은 시간 안에 터치펜으로 미션 완수해야 함, 닌텐도 DS의 터치스크린과 마이크 등 다양한 센서를 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC // RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치 // RPG
+본편, DLC 전부 플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치 // 오픈 월드 RPG
+본편만 플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 소드/실드에서 미흡했던 스토리 요소를 보완하기 위해 세 가지 루트의 스토리 형식을 채용
+2. 오픈 월드 RPG를 표방해 자유롭게 스토리를 진행할 수 있는 듯 보이지만, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>NPC의 레벨 스케일링이 되어 있지 않아 사실상 정해진 진행 순서를 따르는 등 제한적인 오픈 월드 존재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 포켓몬의 속성을 임시로 변환할 수 있는 테라스탈 시스템은 물론, 포켓몬을 소환해 야생 포켓몬을 자동으로 잡아주는 레츠고와 전작보다 더 다양해진 커스터마이징 시스템 등 게임성과 편의성 요소 추가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치 // 피트니스 어드벤처
+최고 강도 30 플레이 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 최초 접속 시 선호 구단 타자, 투수 플래티넘 카드 지급해 신규 유저 접근성을 높임, 가이드 미션 클리어 하면 팀 위시 선수와 최고 등급인 레전드 장민철 등 정착에 유의미한 보상 지급
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단순한 타격 모드처럼 보이는 홈런 더비 모드에도 경험치 획득을 통한 성장 요소나 점수를 겨뤄 등수를 정하는 간접적 PVP 요소 등, 경쟁을 통한 선수 육성의 재미를 끌어올림</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드 미션 1 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁술사/음유시인 메인 플레이
+홍련의 해방자 확장팩 당시 플레이
+(만렙 70레벨 기준 50레벨 달성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.03.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 레이드에 대한 부담감 줄이기 위해 레이드 콘텐츠의 난이도(학습량) 낮췄지만, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>콘텐츠 추가와 누적된 요구 학습량으로 기존 장점 퇴색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 레이드 외 기존 콘텐츠는 우선 수위가 밀려 우선순위가 밀려 구색 갖추기 용도
+3. 유저 정착을 외부 정보 획득처(유튜브 등)에 의존</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 낙하물 피하기와 누킹 타임(통칭 극딜)으로 이루어진 레이드 시스템과 사냥을 통한 재화 획득과 레벨 상승
+2. 사냥 및 부캐 육성의 높은 피로도와 다중 강화 BM에도 불구하고 메이플스토리만의 2D 코디 시스템과 커뮤니티(길드) 등으로 유저 잔존 유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 완성도 높은 초반 메인스트림(시나리오)과 환생이라는 레벨 초기화 및 누적 시스템으로 다양한 직업을 플레이할 수 있어 다른 게임에서 보기 힘든 매력
+2. 누적된 유저들 간의 스펙 격차와 옛날 엔진 그래픽으로 인해 신규 및 복귀 유저의 진입 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 구 파이널 판타지 XIV의 서비스 종료 당시 이벤트와 CG 영상을 사용해 멸망했다는 스토리로 서비스 종료 후 전부 리메이크해 성공
+2. 적을 타겟팅 후 스킬을 사용해 맞추는 방식, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하위 직업인 클래스와 상위 직업인 잡이 있으며 전투 클래스의 경우 자유롭게 변경할 수 있어 한 캐릭터로 다양한 플레이 가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 2D 벨트스크롤 RPG로 간단한 조작과 화려한 도트 그래픽, 개성적인 장비 옵션이 장점, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매 시즌 장비 소프트 리셋 및 이벤트로 이전 시즌 장비 지급해 신규 유저 진입이 쉬움</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 재화를 소모해 입장한 던전에서 낮은 확률로 해당 시즌 장비(에픽 아이템)를 획득하는 방식, 획득을 잘 하면 금방 맞추지만 아닌 경우 최종 장비 맞추는데 기약이 없음
+3. 시너지 딜러 및 버퍼의 경우 퓨어 딜러보다 레이드 파티 입장에 유리하지만, 솔로 플레이 콘텐츠에서 퓨어 딜러보다 콘텐츠 클리어가 불리함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. RPG 시스템에 전투는 슈팅, 맵 기믹은 퍼즐을 활용, 보스 기믹은 기존에 존재하는 미니게임이지만 스토리적 요소를 조합해 특별해 보이도록 만듦
+2. 몬스터 사냥이나 레벨 상승처럼 흔히 생각하는 RPG의 특징을 뒤틀고, 몬스터 외형의 NPC가 호감 가도록 만드는 뛰어난 스토리텔링이 특징
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리를 통해 도트 그래픽에도 유저들의 2차 창작을 활성화시킴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 뛰어난 스토리와 적절한 게임성이 있다면 흥행할 수 있다는 예시</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 특색있는 던전 맵과 캐릭터의 수려한 3D 모델링, 보스 부위 파괴 시스템과 주변 환경 상호 작용 가능한 보스전 등 액션성 강조한 게임성과 마비노기라는 익숙한 IP 활용해 진입 유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 블리자드 IP를 이용한 AOS, 다른 블리자드 게임에서 등장하는 다양한 영웅을 플레이, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀과 경험치 공유, 아이템 대체한 특성 시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로 진입 장벽은 낮음
+2. 앞서 언급한 점들로 인한 변수 다양성이 적은 것과 공격 타격감이 거의 없어 리그 오브 레전드에 비해 게임성이 떨어지는 편</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 서브컬쳐를 겨냥한 개성적인 실험체 디자인과 아이템 재료 파밍과 사냥 시스템을 통해 레벨과 장비 등급을 올려 대규모 교전을 즐기는 재미
+2. 지역에 따라 다른 파밍 가능 장비 재료와 실험체 따라 다른 패시브 및 특성과 무기, 전술 스킬 등 학습량 자체는 많지만, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인게임에서 재료 파밍 이동 루트와 다른 유저의 리플레이 정보를 제공하는 등 학습량을 낮추는 시스템 존재 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 인게임에 영향 미치지 않는 시즌 패스인 ER 패스와 실험체 스킨과 이모티콘 등을 주 BM으로 사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 에임과 사운드 플레이같이 은엄폐 플레이에 중점을 두던 기존 FPS와 달리, RPG같이 스킬과 역할군을 둬 FPS에 익숙하지 않아도 쉽게 플레이 가능
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>힐러와 탱커는 딜러보다 직관적인 재미를 느끼기 어려워 유저 비율이 딜러에 몰리는 경향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 있음, 이를 해결하기 위해 힐러와 탱커에게 뽑기 박스를 더 주는 방안을 모색했지만 근본적인 해결은 되지 않음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 포탈건을 사용해 입구와 출구를 만들어 퍼즐을 깨는 플랫포머 게임
+2. 맞아 죽을 일은 잘 없지만 입구와 출구 이동 시 상승하는 물리력을 이용해야 하는 퍼즐이 있어서 퍼즐 난이도에 막혀 그만두는 경우가 많음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 총이나 방탄복같이 장비를 파밍 해 다른 유저들 사이에서 홀로 살아남으면 승리
+2. 기본적으로 FPS 시스템을 따르고 있어 에임 같은 피지컬적 요소가 부족하다면 재미를 느끼기 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 삼국지 IP 이용한 무쌍류 게임, 선택한 장수로 적진을 쓸어버리며 유명 장수인 여포와 일기토도 가능
+2. 바람이 몰려와서 유저 캐릭터가 뒤로 밀리는 와중에 유저만 노리는 궁병의 공격으로 넉백 당해 처음으로 되돌아가는 구간처럼 불쾌한 구간 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 다양한 무기를 사용해 몬스터를 토벌하고 해당 몬스터의 소재로 새로운 장비를 제작해 다음 몬스터를 토벌하는 구조, 몬스터끼리도 상호작용해 서로 싸우기도 하는 등 세세한 시스템이 잘 갖춰져 있음
+2. 무기마다 익숙해지기까지 시간이 걸리고 구간마다 몬스터를 극복하는 구조, 이런 점이 진입 장벽으로 작용할 수 있어 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확장팩 발매 시 이전 시즌 장비를 패키지로 판매해 빠르게 진입하도록 유도</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 잔잔한 피아노곡을 중심의 스토리가 진행되는 비주얼 노벨에 가까운 게임
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>큰 게임성이 없어도 스토리텔링과 BGM만으로도 게임이 흥행할 수 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는 예시</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 미술관에 갇혀 살아 움직이는 미술품으로부터 살아남는 호러 어드벤쳐 게임
+2. 주인공 이브와 서브 주인공 게리를 직접 조작하며 한쪽의 플레이가 반대쪽에 영향을 미침, 행동에 따라 엔딩 분기가 갈리며 주인공이 교체되기도 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 제시되는 분야의 퀴즈를 맞히면 공격하는 방식, 속성 시스템이 있어 데미지 추가나 반감이 적용되며 일정 시간 이하로 맞출 시 데미지 상승
+2. 전혀 모르는 분야의 퀴즈가 진입장벽이 될 수 있지만, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외부 사이트를 통해 퀴즈 정답을 알 수 있어 검색할 수 있는 환경에선 진입장벽이 낮은 편</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 매일 접속 시 일정한 재화를 주는 월정액과 재화 구매 BM을 통해 캐릭터 카드 뽑기가 메인 BM이나, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이벤트에 따라 좋은 성능의 캐릭터 카드를 제공해 과금하지 않아도 플레이 가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 2D 도트 그래픽의 캐릭터를 배치해 몬스터 웨이브를 처치하며 진행
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블록과 특수 스킬(궁극기) 존재해 블록 스킬 일정량 소모 시 해당 캐릭터 특수 스킬 블록이 생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됨, 블록 스킬은 최대 3개까지 이어진 개수(체인)가 늘어날수록 강화 스킬 사용 가능
+3. 4성 이상의 캐릭터는 패시브가 존재해 블록 스킬과 연계되는 등 플레이 다양성 존재</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 인기 IP를 기반으로 캐릭터의 다양한 클래스(직업) 상성과 3색의 카드 목록 중 3개를 골라 적을 처치해 스토리 및 재화 획득 임무 수행
+2. 클래스 상성, 예장(장비), 마스터(플레이어) 스킬 등 요소와 인게임에서 3색 카드의 사용 순서 등 다양한 요소로 복잡한 게임성 존재
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인기 IP의 애정 캐릭터와 스토리로 게임 충성도를 만드는 구조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로, 애정 캐릭터가 없거나 스토리가 마음에 들지 않으면 진입하기 힘들 수 있음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 피아노 음색 위주의 건반형 리듬 게임으로 탭과 슬라이드 노트를 사용, 게임을 진행해 나무를 성장시켜 스토리를 보는 방식
+2. BM은 앱 구매와 DLC 추가 곡 다운로드 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전장 콘텐츠 메인 플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 피처폰 시절 버튼 하나로 플레이하는 간편한 게임성과 대비되는 높은 난이도
+2. 일직선으로 계속 달릴 뿐이지만 상하좌우 화면을 계속 바꿔가며 화면을 회전시켜 플레이하게 만드는 당시에 놀라운 게임성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 100일 동안 캐릭터 육성에 따라 엔딩이 달라지는 멀티 엔딩, 레벨이 없는 대신 프린세스 메이커와 같이 수련이나 아이템을 통해 능력치를 상승시키는 시스템 존재
+2. 마법(스킬)이 존재, 정신 지배라는 스킬로 몬스터를 처치하면 펫으로 사용 가능, 마법은 중심/중부/외부 문양으로 구성돼 있으며 각각 스킬, 고정 데미지, 마력 퍼센트 데미지 추가
+3. 초기 인디 게임의 한계로 각종 버그와 인게임 그래픽 등 아쉬운 점이 있지만, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빌드를 만들 수 있는 수련 시스템과 엔딩 이후 도전할 수 있는 보스 등 2회차 요소 플레이 요소가 존재해 계속 플레이하도록 만듦</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 전작과 비슷한 시스템에서 100일의 시간제한이 사라지고 발전한 그래픽과 UI, 전작과 같은 시간대에 진행되는 스토리로 전작의 주인공을 만날 수 있는 등 다양한 변경 사항 존재
+2. 마법 공격용 무기 외에도 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물리 공격용 무기가 추가 및 수련 시스템에 시간제한이 사라져 원하는 플레이 빌드를 극한까지 만들 수 있음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 멀티 엔딩이던 전작과 달리 하나의 엔딩으로 만들었음에도 엔딩 추가 요소 및 시간제한의 삭제로 게임에 몰입하는 시간이 늘어남</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 한국에서 최초로 공식 한글화된 별의 커비 시리즈, 적을 빨아들여 카피하는 능력으로 다양한 플레이 경험 존재
-2. 별의 커비 시리즈로서의 구성과 기존보다 쉬운 난이도로 시리즈 입문작으로 추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 플랫폼 게임의 대표격 게임으로, 점프 후 밟기 외에도 파워업 아이템을 먹어 적을 처치하는 등 플랫폼 게임 문법을 제시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3DS // 만지는 순간 액션 게임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 5초의 짧은 시간 안에 터치펜으로 미션 완수해야 함, 닌텐도 DS의 터치스크린과 마이크 등 다양한 센서를 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC // RPG</t>
+2. 별의 커비 시리즈로서의 구성과 기존보다 낮은 난이도로 시리즈 입문작으로 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 플랫폼 게임의 대표 게임으로, 점프 후 밟기 외에도 파워업 아이템을 먹어 적을 처치하는 등 플랫폼 게임 문법을 제시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1657,7 +1752,7 @@
       </rPr>
       <t xml:space="preserve">
 2. 시간 시스템, 특수 능력치를 특수공격/특수방어로 분리, 포켓몬 교배 등 시리즈의 기반이 되는 시스템 추가
-3. 선택 스타팅 포켓몬에 따라 진행 난이도가 달라지는 점이나 포켓몬의 경험치를 일일이 올려줘야 되는 불편함 존재</t>
+3. 선택 스타팅 포켓몬에 따라 진행 난이도가 달라지는 점이나 포켓몬의 경험치를 일일이 올려줘야 하는 불편함 존재</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1697,46 +1792,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 기존작의 DLC 추가 등 BM 요소 변화</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스위치 // RPG
-본편, DLC 전부 플레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스위치 // 오픈 월드 RPG
-본편만 플레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 소드/실드에서 미흡했던 스토리 요소를 보완하기 위해 세 가지 루트의 스토리 형식을 채용
-2. 오픈 월드 RPG를 표방해 자유롭게 스토리를 진행할 수 있는 듯 보이지만, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>NPC의 레벨 스케일링이 되어 있지 않아 사실상 정해진 진행 순서를 따르는 등 제한적인 오픈 월드 존재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-3. 포켓몬의 속성을 임시로 변환할 수 있는 테라스탈 시스템은 물론, 포켓몬을 소환해 야생 포켓몬을 자동으로 잡아주는 레츠고와 전작보다 더 다양해진 커스터마이징 시스템 등 게임성과 편의성 요소 추가</t>
+      <t xml:space="preserve"> 기존 작의 DLC 추가 등 BM 요소 변화</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1755,63 +1811,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>운동 전후 스트레칭과 소모 칼로리, 총 운동 횟수, 토막 지식 등 실제로 얼마나 운동을 했는지 직관적으로 알려줘 의욕 상승</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스위치 // 피트니스 어드벤처
-최고 강도 30 플레이 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 최초 접속 시 선호 구단 타자, 투수 플래티넘 카드 지급해 신규 유저 접근성을 높임, 가이드 미션 클리어 하면 팀 위시 선수와 최고 등급인 레전드 장민철 등 정착에 유의미한 보상 지급
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단순한 타격 모드처럼 보이는 홈런 더비 모드에도 경험치 획득을 통한 성장 요소나 점수를 겨뤄 등수를 정하는 간접적 PVP 요소 등, 경쟁을 통한 선수 육성의 재미를 끌어올림</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이드 미션 1 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁술사/음유시인 메인 플레이
-홍련의 해방자 확장팩 당시 플레이
-(만렙 70레벨 기준 50레벨 달성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 구 파이널 판타지 XIV의 서비스 종료 당시 이벤트와 CG영상을 사용해 멸망했다는 스토리로 서비스 종료 후 전부 리메이크해 성공
-2. 적을 타겟팅 후 스킬을 사용해 맞추는 방식, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하위 직업인 클래스와 상위 직업인 잡이 있으며 전투 클래스의 경우 자유롭게 변경이 가능해 한 캐릭터로 다양한 플레이 가능</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.03.28</t>
+      <t>운동 전후 스트레칭과 소모 칼로리, 총운동 횟수, 토막 지식 등 실제로 얼마나 운동했는지 직관적으로 알려줘 의욕 상승</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2363,27 +2364,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2394,15 +2404,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2780,26 +2781,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1288A661-A3D5-4485-A1C4-91765797A11D}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="28.69921875" style="22" customWidth="1"/>
     <col min="5" max="6" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.75" style="23" customWidth="1"/>
-    <col min="8" max="8" width="30.75" style="23" customWidth="1"/>
-    <col min="9" max="10" width="9.25" style="1"/>
-    <col min="11" max="11" width="33.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.25" style="1"/>
+    <col min="7" max="7" width="39.69921875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="23" customWidth="1"/>
+    <col min="9" max="10" width="9.19921875" style="1"/>
+    <col min="11" max="11" width="33.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2809,96 +2810,96 @@
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="36"/>
+      <c r="C2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="42"/>
       <c r="E2" s="28" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="40"/>
+      <c r="C3" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="44"/>
       <c r="E3" s="29" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="45"/>
+      <c r="C4" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="48"/>
       <c r="E4" s="29" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="10">
         <f>COUNT(A9:A68)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="43"/>
+      <c r="C5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="46"/>
       <c r="E5" s="34" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.2" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="33" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="4"/>
@@ -2908,12 +2909,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>7</v>
@@ -2922,50 +2923,50 @@
         <v>8</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.4">
       <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.4">
       <c r="A10" s="21">
         <v>2</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="22" t="s">
         <v>20</v>
       </c>
@@ -2973,21 +2974,21 @@
         <v>70</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.4">
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="22" t="s">
         <v>57</v>
       </c>
@@ -2995,21 +2996,21 @@
         <v>72</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A12" s="21">
         <v>4</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="22" t="s">
         <v>19</v>
       </c>
@@ -3017,21 +3018,21 @@
         <v>72</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.4">
       <c r="A13" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="22" t="s">
         <v>22</v>
       </c>
@@ -3039,21 +3040,21 @@
         <v>72</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.4">
       <c r="A14" s="21">
         <v>6</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="22" t="s">
         <v>50</v>
       </c>
@@ -3061,22 +3062,22 @@
         <v>72</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="173.25" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="165" x14ac:dyDescent="0.4">
       <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="37" t="s">
-        <v>91</v>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>21</v>
@@ -3085,21 +3086,21 @@
         <v>71</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="173.25" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.4">
       <c r="A16" s="21">
         <v>8</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="22" t="s">
         <v>35</v>
       </c>
@@ -3107,21 +3108,21 @@
         <v>71</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="63" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A17" s="21">
         <v>9</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="22" t="s">
         <v>23</v>
       </c>
@@ -3129,20 +3130,20 @@
         <v>72</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="63" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A18" s="21">
         <v>10</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="22" t="s">
         <v>5</v>
       </c>
@@ -3153,21 +3154,21 @@
         <v>72</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.4">
       <c r="A19" s="21">
         <v>11</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="37" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -3177,21 +3178,21 @@
         <v>70</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A20" s="21">
         <v>12</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="22" t="s">
         <v>12</v>
       </c>
@@ -3199,20 +3200,20 @@
         <v>72</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="204.75" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.4">
       <c r="A21" s="21">
         <v>13</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="24" t="s">
         <v>24</v>
       </c>
@@ -3223,21 +3224,21 @@
         <v>72</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="141.75" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.4">
       <c r="A22" s="21">
         <v>14</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="22" t="s">
@@ -3247,21 +3248,21 @@
         <v>70</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A23" s="21">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="22" t="s">
         <v>56</v>
       </c>
@@ -3269,20 +3270,20 @@
         <v>72</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="78.75" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A24" s="21">
         <v>16</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="22" t="s">
         <v>52</v>
       </c>
@@ -3293,18 +3294,18 @@
         <v>72</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.4">
       <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="37" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -3314,21 +3315,21 @@
         <v>70</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A26" s="21">
         <v>18</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="22" t="s">
         <v>59</v>
       </c>
@@ -3336,21 +3337,21 @@
         <v>70</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="157.5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.4">
       <c r="A27" s="21">
         <v>19</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="22" t="s">
         <v>44</v>
       </c>
@@ -3358,45 +3359,45 @@
         <v>72</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="78.75" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A28" s="21">
         <v>20</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="37" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A29" s="21">
         <v>21</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="22" t="s">
         <v>47</v>
       </c>
@@ -3404,19 +3405,19 @@
         <v>70</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.4">
       <c r="A30" s="21">
         <v>22</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>49</v>
@@ -3425,20 +3426,20 @@
         <v>72</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A31" s="21">
         <v>23</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="22" t="s">
         <v>67</v>
       </c>
@@ -3449,20 +3450,20 @@
         <v>72</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="63" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A32" s="21">
         <v>24</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="22" t="s">
         <v>54</v>
       </c>
@@ -3473,22 +3474,22 @@
         <v>72</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A33" s="21">
         <v>25</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>48</v>
@@ -3497,20 +3498,20 @@
         <v>69</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="63" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A34" s="21">
         <v>26</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="27" t="s">
         <v>25</v>
       </c>
@@ -3521,21 +3522,21 @@
         <v>1</v>
       </c>
       <c r="F34" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>154</v>
-      </c>
       <c r="H34" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="63" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A35" s="21">
         <v>27</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="37" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="38" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="22" t="s">
@@ -3545,21 +3546,21 @@
         <v>69</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="H35" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A36" s="21">
         <v>28</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="22" t="s">
         <v>34</v>
       </c>
@@ -3567,24 +3568,24 @@
         <v>69</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="H36" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="220.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="180" x14ac:dyDescent="0.4">
       <c r="A37" s="21">
         <v>29</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>99</v>
+      <c r="C37" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>36</v>
@@ -3593,21 +3594,21 @@
         <v>71</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="90" x14ac:dyDescent="0.4">
       <c r="A38" s="21">
         <v>30</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="22" t="s">
         <v>37</v>
       </c>
@@ -3615,18 +3616,18 @@
         <v>70</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="189" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="150" x14ac:dyDescent="0.4">
       <c r="A39" s="21">
         <v>31</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="22" t="s">
         <v>42</v>
       </c>
@@ -3634,21 +3635,21 @@
         <v>70</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="126" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.4">
       <c r="A40" s="21">
         <v>32</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="41"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="22" t="s">
         <v>39</v>
       </c>
@@ -3656,43 +3657,43 @@
         <v>72</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A41" s="21">
         <v>33</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="41"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="22" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.4">
       <c r="A42" s="21">
         <v>34</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="41"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="22" t="s">
         <v>38</v>
       </c>
@@ -3700,21 +3701,21 @@
         <v>72</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="173.25" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="135" x14ac:dyDescent="0.4">
       <c r="A43" s="21">
         <v>35</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="22" t="s">
         <v>28</v>
       </c>
@@ -3722,43 +3723,43 @@
         <v>72</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="173.25" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="150" x14ac:dyDescent="0.4">
       <c r="A44" s="21">
         <v>36</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="41"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="63" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A45" s="21">
         <v>37</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="37" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="22" t="s">
@@ -3768,21 +3769,21 @@
         <v>70</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A46" s="21">
         <v>38</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="22" t="s">
         <v>60</v>
       </c>
@@ -3790,18 +3791,18 @@
         <v>72</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="141.75" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="120" x14ac:dyDescent="0.4">
       <c r="A47" s="21">
         <v>39</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="22" t="s">
         <v>41</v>
       </c>
@@ -3809,21 +3810,21 @@
         <v>72</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A48" s="21">
         <v>40</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="38"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="22" t="s">
         <v>61</v>
       </c>
@@ -3831,17 +3832,17 @@
         <v>72</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.4">
       <c r="A49" s="21">
         <v>41</v>
       </c>
-      <c r="B49" s="47"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="25" t="s">
         <v>15</v>
       </c>
@@ -3852,45 +3853,45 @@
         <v>72</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A50" s="21">
         <v>42</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="37" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="105" x14ac:dyDescent="0.4">
       <c r="A51" s="21">
         <v>43</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="38"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="22" t="s">
         <v>43</v>
       </c>
@@ -3898,68 +3899,68 @@
         <v>72</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A52" s="21">
         <v>44</v>
       </c>
-      <c r="B52" s="47"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="24" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="126" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="120" x14ac:dyDescent="0.4">
       <c r="A53" s="21">
         <v>45</v>
       </c>
-      <c r="B53" s="47"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="63" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A54" s="21">
         <v>46</v>
       </c>
-      <c r="B54" s="47"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="22" t="s">
         <v>53</v>
       </c>
@@ -3970,92 +3971,92 @@
         <v>70</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="78.75" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A55" s="21">
         <v>47</v>
       </c>
-      <c r="B55" s="47"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="204.75" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="195" x14ac:dyDescent="0.4">
       <c r="A56" s="21">
         <v>48</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="37" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="157.5" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="150" x14ac:dyDescent="0.4">
       <c r="A57" s="21">
         <v>49</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="41"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="105" x14ac:dyDescent="0.4">
       <c r="A58" s="21">
         <v>50</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="37" t="s">
-        <v>100</v>
+      <c r="B58" s="37"/>
+      <c r="C58" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>62</v>
@@ -4064,21 +4065,21 @@
         <v>69</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="H58" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="105" x14ac:dyDescent="0.4">
       <c r="A59" s="21">
         <v>51</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="41"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="22" t="s">
         <v>63</v>
       </c>
@@ -4086,21 +4087,21 @@
         <v>69</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H59" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.4">
       <c r="A60" s="21">
         <v>52</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="41"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="22" t="s">
         <v>64</v>
       </c>
@@ -4108,179 +4109,186 @@
         <v>70</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="78.75" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A61" s="21">
         <v>53</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="37" t="s">
+      <c r="B61" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="38" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E61" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A62" s="21">
         <v>54</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="41"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="22" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A63" s="21">
         <v>55</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="41"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="22" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="157.5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="150" x14ac:dyDescent="0.4">
       <c r="A64" s="21">
         <v>56</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="37" t="s">
-        <v>91</v>
+      <c r="B64" s="37"/>
+      <c r="C64" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E64" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="141.75" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.4">
       <c r="A65" s="21">
         <v>57</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="41"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="22" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="173.25" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="150" x14ac:dyDescent="0.4">
       <c r="A66" s="21">
         <v>58</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="38"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="40"/>
       <c r="D66" s="22" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="141.75" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="135" x14ac:dyDescent="0.4">
       <c r="A67" s="21">
         <v>59</v>
       </c>
-      <c r="B67" s="47"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B61:B67"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C25:C27"/>
@@ -4295,13 +4303,6 @@
     <mergeCell ref="B9:B36"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/게임 플레이 목록_240328.xlsx
+++ b/게임 플레이 목록_240328.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F21C03-07C7-4900-9BEE-FEAD8848D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA58519-9E67-43B7-8E94-4478D77C57CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="16200" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
+    <workbookView xWindow="0" yWindow="168" windowWidth="23040" windowHeight="12576" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
   <sheets>
     <sheet name="게임 플레이 목록" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="245">
   <si>
     <t>초보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -649,57 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. 학원도시 키보토스를 배경으로 학생들과의 완성도 높은 스토리와 스토리 등장 보스 레이드를 메인 콘텐츠로 하는 수집형 RPG
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완성도 높은 스토리와 학생 설정 및 디자인으로 성능이 좋지 않아도 애정으로 뽑게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 만들고, 뽑은 학생들로 간접적 PVP인 보스 레이드를 진행
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보스 레이드 등급 분류가 넓어 유저 성향에 따라 스토리만 즐긴 후 보스 레이드는 라이트하게 하는 서브 게임으로서의 면모</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가 있어, 게임은 하지 않아도 2차 창작에 관심을 두는 경우도 존재
-4. BM으로 뽑기 재화(청휘석), 활동력(AP), 카페 가구나 인게임 아이템 제조 패키지 등 존재</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>콘솔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,34 +703,6 @@
   </si>
   <si>
     <t>월드 4 광기의 사막 진행 중 중단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 다양한 미디어의 패러디 요소를 스토리에 녹여내고, 2D 도트 그래픽임에도 준수한 연출과 적절한 퍼즐 등 콘솔 게임 요소 사용
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과금을 하더라도 인게임 재화가 제한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>되어 있음, 이로 인해 신규와 기존 유저의 차이를 완화하기 위해 비기너 미션으로 각종 초기화 아이템 제공</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1096,92 +1017,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. 레이드에 대한 부담감 줄이기 위해 레이드 콘텐츠의 난이도(학습량) 낮췄지만, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>콘텐츠 추가와 누적된 요구 학습량으로 기존 장점 퇴색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 레이드 외 기존 콘텐츠는 우선 수위가 밀려 우선순위가 밀려 구색 갖추기 용도
-3. 유저 정착을 외부 정보 획득처(유튜브 등)에 의존</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 낙하물 피하기와 누킹 타임(통칭 극딜)으로 이루어진 레이드 시스템과 사냥을 통한 재화 획득과 레벨 상승
-2. 사냥 및 부캐 육성의 높은 피로도와 다중 강화 BM에도 불구하고 메이플스토리만의 2D 코디 시스템과 커뮤니티(길드) 등으로 유저 잔존 유도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 완성도 높은 초반 메인스트림(시나리오)과 환생이라는 레벨 초기화 및 누적 시스템으로 다양한 직업을 플레이할 수 있어 다른 게임에서 보기 힘든 매력
-2. 누적된 유저들 간의 스펙 격차와 옛날 엔진 그래픽으로 인해 신규 및 복귀 유저의 진입 어려움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 구 파이널 판타지 XIV의 서비스 종료 당시 이벤트와 CG 영상을 사용해 멸망했다는 스토리로 서비스 종료 후 전부 리메이크해 성공
-2. 적을 타겟팅 후 스킬을 사용해 맞추는 방식, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하위 직업인 클래스와 상위 직업인 잡이 있으며 전투 클래스의 경우 자유롭게 변경할 수 있어 한 캐릭터로 다양한 플레이 가능</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 2D 벨트스크롤 RPG로 간단한 조작과 화려한 도트 그래픽, 개성적인 장비 옵션이 장점, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매 시즌 장비 소프트 리셋 및 이벤트로 이전 시즌 장비 지급해 신규 유저 진입이 쉬움</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 재화를 소모해 입장한 던전에서 낮은 확률로 해당 시즌 장비(에픽 아이템)를 획득하는 방식, 획득을 잘 하면 금방 맞추지만 아닌 경우 최종 장비 맞추는데 기약이 없음
-3. 시너지 딜러 및 버퍼의 경우 퓨어 딜러보다 레이드 파티 입장에 유리하지만, 솔로 플레이 콘텐츠에서 퓨어 딜러보다 콘텐츠 클리어가 불리함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. RPG 시스템에 전투는 슈팅, 맵 기믹은 퍼즐을 활용, 보스 기믹은 기존에 존재하는 미니게임이지만 스토리적 요소를 조합해 특별해 보이도록 만듦
 2. 몬스터 사냥이나 레벨 상승처럼 흔히 생각하는 RPG의 특징을 뒤틀고, 몬스터 외형의 NPC가 호감 가도록 만드는 뛰어난 스토리텔링이 특징
 3. </t>
@@ -1210,10 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 특색있는 던전 맵과 캐릭터의 수려한 3D 모델링, 보스 부위 파괴 시스템과 주변 환경 상호 작용 가능한 보스전 등 액션성 강조한 게임성과 마비노기라는 익숙한 IP 활용해 진입 유도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. 블리자드 IP를 이용한 AOS, 다른 블리자드 게임에서 등장하는 다양한 영웅을 플레이, </t>
     </r>
@@ -1391,35 +1222,6 @@
         <charset val="129"/>
       </rPr>
       <t>이벤트에 따라 좋은 성능의 캐릭터 카드를 제공해 과금하지 않아도 플레이 가능</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 2D 도트 그래픽의 캐릭터를 배치해 몬스터 웨이브를 처치하며 진행
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>블록과 특수 스킬(궁극기) 존재해 블록 스킬 일정량 소모 시 해당 캐릭터 특수 스킬 블록이 생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="함초롬돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>됨, 블록 스킬은 최대 3개까지 이어진 개수(체인)가 늘어날수록 강화 스킬 사용 가능
-3. 4성 이상의 캐릭터는 패시브가 존재해 블록 스킬과 연계되는 등 플레이 다양성 존재</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1875,8 +1677,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>87렙(최고 계정 레벨), 인세인 난이도 메인 클리어
-총력전 플레티넘 (레이드 최고등급) ~ 골드 상위권</t>
+    <t>최고 계정 레벨 : 87
+총력전(레이드) 난이도
+: 토먼트, 인세인, 익스트림, 하드코어, 베리하드, 하드, 노멀
+총력전 순위
+: 플래티넘 (1~12000),
+골드 (12001~55000),
+실버 (55001~100000), 
+브론즈 (미참여)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87레벨 (최고 계정 레벨)
+인세인 난이도 메인 클리어
+총력전 플래티넘 ~ 골드 상위권 (12000위 근접)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">장)
+1. 레이드 스펙 요구량이 낮아 시간을 들이면 과금 없이도 최종 콘텐츠에 도달 가능
+2. 신규 유저 유입을 위해 정기적인 점핑 및 레벨 업 이벤트로 진입이 어렵지 않음
+3. 트라이를 통해 누구든 클리어할 수 있게 만들어놓은 적절한 난이도의 완성도 높은 레이드
+단) 
+1. 레이드에 대한 부담감 줄이기 위해 레이드 콘텐츠의 난이도(학습량) 낮췄지만, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>콘텐츠 추가와 누적된 요구 학습량으로 기존 장점 퇴색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="함초롬돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 레이드 외 기존 콘텐츠는 우선 수위가 밀려 우선순위가 밀려 구색 갖추기 용도
+3. 로스트아크 IP에 유저의 신뢰를 라이브 방송에 의존하는 경향 존재</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장)
+1. 2D 벨트스크롤 RPG로 간단한 조작과 화려한 도트 그래픽, 개성적인 장비 옵션
+2. 매 시즌 장비 소프트 리셋 및 이벤트로 이전 시즌 장비 지급해 신규 유저 진입이 쉬움
+단)
+1. 재화를 소모해 입장한 던전에서 낮은 확률로 해당 시즌 장비(에픽 아이템)를 획득하는 방식, 운이 좋으면 장비를 금방 맞추지만 아닌 경우 최종 장비 맞추는데 기약이 없음
+2. 레이드를 가기 위해 기본적으로 버스(쩔)를 받아 빠르게 입장하는 방식이 반필수화되어 있음
+---
+시너지 딜러 및 버퍼의 경우 퓨어 딜러보다 레이드 파티 입장에 유리하지만, 솔로 플레이 콘텐츠에서 퓨어 딜러보다 콘텐츠 클리어에 유불리 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장)
+1. 다른 게임으로 대체할 수 없는 메이플스토리만의 2D 감성과 장비 아이템의 가치 보존이 일정량 유지돼 다음 장비 구매 시 이전 장비를 되팔아 활용 가능
+2. 장비 아이템과 레벨 상승 외에도 다양한 스펙업 요소가 존재해 데미지 상승량이 체감되어 장비 아이템을 맞출 동기 부여
+단)
+1. 유니온 시스템과 링크 스킬 등으로 강제되는 사냥 및 서브 캐릭터 육성의 피로도 존재
+2. '5중 나생문'이라고 불리는 장비 아이템의 스펙업 요소로 BM에는 도움 되지만, 장비 아이템 단계 하락과 파괴로 유저 이탈 요소 또한 존재
+---
+1. 낙하물 피하기 기믹과 누킹 타임(통칭 극딜)으로 이루어진 레이드 시스템과 사냥을 통한 재화 획득과 레벨 상승
+2. 사냥 및 서브 캐릭터 육성의 높은 피로도와 다중 강화 BM에도 불구하고 메이플스토리만의 2D 코디 시스템과 커뮤니티(길드) 등으로 유저 잔존 유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장) 
+1. 판타지 라이프에 걸맞는 완성도 높은 초반 메인스트림(시나리오)으로 세계관 몰입에 도움됨
+2. 환생이라는 레벨 초기화 및 누적 시스템으로 다양한 직업을 플레이 가능하고, 환생 시 레벨 1로 재시작함에도 플레이에 제약이 적음
+단)
+1. 누적된 유저들 간의 스펙 격차와 옛날 엔진 그래픽으로 인해 신규 및 복귀 유저의 진입 어려움
+2. 환생 시 캐릭터 나이에 따라서 플레이에 유불리가 존재해 나이를 낮게 설정하는 플레이가 반강제됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 주변 환경과 상호 작용 가능한 특색있는 던전 맵과 수려한 캐릭터 3D 모델링으로 기존에 익숙했던 마비노기 IP에서 벗어나 마비노기 영웅전만의 매력 존재
+2. 보스 부위 파괴 시스템과 스킬간의 연계를 통한 콤보 액션 등으로 특유의 손맛과 액션성을 강조한 게임성 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장)
+1. 하위 직업인 클래스와 상위 직업인 잡이 있으며, 전투 클래스의 경우 자유롭게 변경할 수 있어 한 캐릭터로 다양한 플레이 가능
+2. 구 파이널 판타지 XIV의 서비스 종료 당시 이벤트와 CG 영상을 사용해 멸망한 이후 새로운 세계에서 펼쳐지는 스토리로 서비스 종료 후 게임을 리메이크해 성공한 화제성 존재
+단)
+1. 확장팩 출시되며 패키지 구매하지 않고 플레이 시 기존 유저를 따라가기 어려움, 패키지를 구매해도 캐릭터의 직업에 익숙하지 않아 레이드에 적응할 수 없는 문제 존재
+2. 특정 유저층으로 인해 생긴 부정적인 인식으로 게임 자체를 꺼려하는 분위기 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장)
+1. 학생 설정과 디자인 및 완성도 높은 스토리로, 캐릭터 성능이 좋지 않아도 애정으로 뽑고 최고 등급을 만들게 하는 등 BM으로 이어지게 함
+2. 보스 레이드(총력전)의 순위 등급 분류 기준이 넓어, 유저 성향에 따라 스토리만 즐긴 후 보스 레이드는 라이트하게 즐기는 등 서브 게임으로서의 면모가 있어, IP 자체의 매력으로 게임을 즐기지 않아도 2차 창작으로 이어지는 경우 존재
+3. 캐릭터의 호감도를 높이면 캐릭터와의 추가 스토리를 보고 뽑기 재화를 지급함으로써, 캐릭터에게 애정이 생길 수단을 만듦 
+단)
+1. 보스 레이드의 경우 여러 보스가 운에 의존하는 기믹으로 강제적인 재도전을 하게 만드는 등, 필요 이상의 피로도를 유발하는 부분 존재
+2. 다음 스토리 출시까지 기간이 길고 카페의 간단한 상호작용 외에 인게임에서 캐릭터와 상호작용할 수 있는 부분이 존재하지 않아, 캐릭터만 소비하고 게임은 하지 않는 경우 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장)
+1. 아기자기한 2D 도트 그래픽과 인상적인 스토리로 IP 몰입 요소 존재
+2. 블록과 특수 스킬(궁극기) 존재해 블록 스킬 일정량 소모 시 해당 캐릭터 특수 스킬 블록이 생성, 블록 스킬은 최대 3개까지 이어진 개수(체인)가 늘어날수록 강화 스킬 사용할 수 있는 등 다른 게임과 다른 게임성 존재
+단)
+1. 일정 구간 이후 난이도가 갑자기 상승하는 구간이 존재해 육성의 어려움 존재
+---
+4성 이상의 캐릭터는 패시브가 존재해 블록 스킬과 연계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장)
+1. 다양한 미디어의 패러디 요소를 스토리에 적절히 녹여내어 2D 도트 그래픽임에도 몰입 요소 존재
+2. 과금하더라도 인게임 재화가 제한되어 있어 신규와 기존 유저의 차이를 완화하기 위해 비기너 미션으로 각종 초기화 아이템 제공
+단)
+1. 콘솔 게임 요소 사용한 퍼즐이 난이도가 적정하지 않은 구간이 존재해, 퍼즐 요소에 익숙하지 않은 유저의 경우 헤맬 가능성 존재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2498,27 +2420,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2530,12 +2458,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2912,30 +2834,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1288A661-A3D5-4485-A1C4-91765797A11D}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" style="22" customWidth="1"/>
     <col min="5" max="6" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="42" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.75" style="23" customWidth="1"/>
-    <col min="11" max="11" width="28.625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="30.75" style="44" customWidth="1"/>
-    <col min="13" max="14" width="9.25" style="1"/>
-    <col min="15" max="15" width="33.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.25" style="1"/>
+    <col min="7" max="7" width="30.19921875" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.69921875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="28.59765625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="30.69921875" style="44" customWidth="1"/>
+    <col min="13" max="14" width="9.19921875" style="1"/>
+    <col min="15" max="15" width="33.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2949,20 +2871,20 @@
       <c r="K1" s="6"/>
       <c r="L1" s="38"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="28" t="s">
         <v>104</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G2" s="43"/>
       <c r="H2" s="1"/>
@@ -2971,19 +2893,19 @@
         <v>79</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L2" s="39"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="29" t="s">
         <v>106</v>
       </c>
@@ -3001,15 +2923,15 @@
       </c>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="29" t="s">
         <v>108</v>
       </c>
@@ -3026,15 +2948,15 @@
       </c>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="33" t="s">
         <v>110</v>
       </c>
@@ -3046,7 +2968,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="16.2" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -3062,7 +2984,7 @@
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="4"/>
@@ -3076,7 +2998,7 @@
       <c r="K7" s="16"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>59</v>
       </c>
@@ -3084,7 +3006,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>6</v>
@@ -3096,13 +3018,13 @@
         <v>87</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>86</v>
@@ -3112,12 +3034,12 @@
       </c>
       <c r="L8" s="45"/>
     </row>
-    <row r="9" spans="1:12" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="240" x14ac:dyDescent="0.4">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>15</v>
@@ -3132,24 +3054,24 @@
         <v>103</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="110.25" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="330" x14ac:dyDescent="0.4">
       <c r="A10" s="21">
         <v>2</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
@@ -3160,24 +3082,24 @@
         <v>107</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="110.25" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.4">
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
@@ -3191,21 +3113,21 @@
         <v>92</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="180" x14ac:dyDescent="0.4">
       <c r="A12" s="21">
         <v>4</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="22" t="s">
         <v>20</v>
       </c>
@@ -3219,21 +3141,21 @@
         <v>85</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="110.25" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="240" x14ac:dyDescent="0.4">
       <c r="A13" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="22" t="s">
         <v>48</v>
       </c>
@@ -3244,23 +3166,23 @@
         <v>109</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="189" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="270" x14ac:dyDescent="0.4">
       <c r="A14" s="21">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="48" t="s">
         <v>81</v>
       </c>
@@ -3274,24 +3196,24 @@
         <v>107</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="173.25" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.4">
       <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="22" t="s">
         <v>33</v>
       </c>
@@ -3305,21 +3227,21 @@
         <v>91</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="63" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.4">
       <c r="A16" s="21">
         <v>8</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="22" t="s">
         <v>21</v>
       </c>
@@ -3330,23 +3252,23 @@
         <v>109</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A17" s="21">
         <v>9</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="22" t="s">
         <v>4</v>
       </c>
@@ -3363,20 +3285,20 @@
         <v>93</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A18" s="21">
         <v>10</v>
       </c>
-      <c r="B18" s="58"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="48" t="s">
         <v>7</v>
       </c>
@@ -3390,24 +3312,24 @@
         <v>107</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A19" s="21">
         <v>11</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="22" t="s">
         <v>10</v>
       </c>
@@ -3418,23 +3340,23 @@
         <v>109</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="204.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A20" s="21">
         <v>12</v>
       </c>
-      <c r="B20" s="58"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="24" t="s">
         <v>22</v>
       </c>
@@ -3448,23 +3370,23 @@
         <v>111</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="141.75" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A21" s="21">
         <v>13</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="25" t="s">
         <v>11</v>
       </c>
@@ -3478,26 +3400,26 @@
         <v>105</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A22" s="21">
         <v>14</v>
       </c>
-      <c r="B22" s="58"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="48" t="s">
         <v>50</v>
       </c>
@@ -3511,24 +3433,24 @@
         <v>103</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A23" s="21">
         <v>15</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="22" t="s">
         <v>51</v>
       </c>
@@ -3542,21 +3464,21 @@
         <v>97</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="157.5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="120" x14ac:dyDescent="0.4">
       <c r="A24" s="21">
         <v>16</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="52"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="22" t="s">
         <v>42</v>
       </c>
@@ -3567,26 +3489,26 @@
         <v>111</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.4">
       <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="48" t="s">
         <v>43</v>
       </c>
@@ -3603,24 +3525,24 @@
         <v>74</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J25" s="23" t="s">
         <v>98</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A26" s="21">
         <v>18</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="22" t="s">
         <v>45</v>
       </c>
@@ -3631,23 +3553,23 @@
         <v>111</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J26" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A27" s="21">
         <v>19</v>
       </c>
-      <c r="B27" s="58"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="22" t="s">
         <v>82</v>
       </c>
@@ -3661,13 +3583,13 @@
         <v>111</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J27" s="23" t="s">
         <v>101</v>
@@ -3676,11 +3598,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A28" s="21">
         <v>20</v>
       </c>
-      <c r="B28" s="58"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="22" t="s">
         <v>58</v>
       </c>
@@ -3694,13 +3616,13 @@
         <v>111</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J28" s="23" t="s">
         <v>113</v>
@@ -3709,11 +3631,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.4">
       <c r="A29" s="21">
         <v>21</v>
       </c>
-      <c r="B29" s="58"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="22" t="s">
         <v>89</v>
       </c>
@@ -3730,20 +3652,20 @@
         <v>44</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J29" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A30" s="21">
         <v>22</v>
       </c>
-      <c r="B30" s="58"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="27" t="s">
         <v>23</v>
       </c>
@@ -3757,26 +3679,26 @@
         <v>103</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J30" s="23" t="s">
         <v>115</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.4">
       <c r="A31" s="21">
         <v>23</v>
       </c>
-      <c r="B31" s="58"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="48" t="s">
         <v>30</v>
       </c>
@@ -3793,21 +3715,21 @@
         <v>44</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A32" s="21">
         <v>24</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="52"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="22" t="s">
         <v>32</v>
       </c>
@@ -3821,20 +3743,20 @@
         <v>44</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="220.5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="315" x14ac:dyDescent="0.4">
       <c r="A33" s="21">
         <v>25</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="48" t="s">
@@ -3850,24 +3772,27 @@
         <v>105</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="90" x14ac:dyDescent="0.4">
       <c r="A34" s="21">
         <v>26</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="22" t="s">
         <v>35</v>
       </c>
@@ -3878,24 +3803,24 @@
         <v>107</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J34" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="189" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A35" s="21">
         <v>27</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="22" t="s">
         <v>40</v>
       </c>
@@ -3906,27 +3831,27 @@
         <v>105</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="126" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="240" x14ac:dyDescent="0.4">
       <c r="A36" s="21">
         <v>28</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="52"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="22" t="s">
         <v>37</v>
       </c>
@@ -3937,29 +3862,29 @@
         <v>109</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.4">
       <c r="A37" s="21">
         <v>29</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="52"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>63</v>
@@ -3968,27 +3893,27 @@
         <v>109</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.4">
       <c r="A38" s="21">
         <v>30</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="52"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="22" t="s">
         <v>36</v>
       </c>
@@ -3999,24 +3924,24 @@
         <v>109</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="157.5" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="135" x14ac:dyDescent="0.4">
       <c r="A39" s="21">
         <v>31</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="52"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="22" t="s">
         <v>26</v>
       </c>
@@ -4027,27 +3952,27 @@
         <v>109</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="173.25" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A40" s="21">
         <v>32</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="52"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="22" t="s">
         <v>70</v>
       </c>
@@ -4058,26 +3983,26 @@
         <v>111</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K40" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.4">
       <c r="A41" s="21">
         <v>33</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="48" t="s">
         <v>58</v>
       </c>
@@ -4094,24 +4019,24 @@
         <v>74</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A42" s="21">
         <v>34</v>
       </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="52"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="22" t="s">
         <v>52</v>
       </c>
@@ -4122,24 +4047,24 @@
         <v>107</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A43" s="21">
         <v>35</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="52"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="22" t="s">
         <v>39</v>
       </c>
@@ -4150,26 +4075,26 @@
         <v>109</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="90" x14ac:dyDescent="0.4">
       <c r="A44" s="21">
         <v>36</v>
       </c>
-      <c r="B44" s="58"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="25" t="s">
         <v>13</v>
       </c>
@@ -4183,28 +4108,28 @@
         <v>107</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A45" s="21">
         <v>37</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="48" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>63</v>
@@ -4213,27 +4138,27 @@
         <v>109</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A46" s="21">
         <v>38</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="49"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="22" t="s">
         <v>41</v>
       </c>
@@ -4244,28 +4169,28 @@
         <v>111</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A47" s="21">
         <v>39</v>
       </c>
-      <c r="B47" s="58"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>71</v>
@@ -4277,26 +4202,26 @@
         <v>109</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="126" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="120" x14ac:dyDescent="0.4">
       <c r="A48" s="21">
         <v>40</v>
       </c>
-      <c r="B48" s="58"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="22" t="s">
         <v>72</v>
       </c>
@@ -4310,23 +4235,23 @@
         <v>109</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="63" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="60" x14ac:dyDescent="0.4">
       <c r="A49" s="21">
         <v>41</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="22" t="s">
         <v>49</v>
       </c>
@@ -4340,28 +4265,28 @@
         <v>109</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A50" s="21">
         <v>42</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>61</v>
@@ -4373,23 +4298,23 @@
         <v>74</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="204.75" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="195" x14ac:dyDescent="0.4">
       <c r="A51" s="21">
         <v>43</v>
       </c>
-      <c r="B51" s="58"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="48" t="s">
         <v>29</v>
       </c>
@@ -4403,27 +4328,27 @@
         <v>109</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H51" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K51" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="I51" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="157.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A52" s="21">
         <v>44</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="52"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="22" t="s">
         <v>76</v>
       </c>
@@ -4434,26 +4359,26 @@
         <v>109</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A53" s="21">
         <v>45</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="48" t="s">
         <v>89</v>
       </c>
@@ -4470,21 +4395,21 @@
         <v>44</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A54" s="21">
         <v>46</v>
       </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="52"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="22" t="s">
         <v>54</v>
       </c>
@@ -4498,21 +4423,21 @@
         <v>44</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.4">
       <c r="A55" s="21">
         <v>47</v>
       </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="52"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="22" t="s">
         <v>55</v>
       </c>
@@ -4523,30 +4448,30 @@
         <v>111</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A56" s="21">
         <v>48</v>
       </c>
-      <c r="B56" s="57" t="s">
-        <v>118</v>
+      <c r="B56" s="46" t="s">
+        <v>117</v>
       </c>
       <c r="C56" s="48" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>61</v>
@@ -4558,26 +4483,26 @@
         <v>74</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A57" s="21">
         <v>49</v>
       </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="52"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>63</v>
@@ -4586,29 +4511,29 @@
         <v>109</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A58" s="21">
         <v>50</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="52"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E58" s="21" t="s">
         <v>63</v>
@@ -4617,31 +4542,31 @@
         <v>111</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="157.5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A59" s="21">
         <v>51</v>
       </c>
-      <c r="B59" s="58"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="48" t="s">
         <v>81</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="21" t="s">
         <v>61</v>
@@ -4650,29 +4575,29 @@
         <v>107</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="141.75" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="135" x14ac:dyDescent="0.4">
       <c r="A60" s="21">
         <v>52</v>
       </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="52"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>61</v>
@@ -4681,29 +4606,29 @@
         <v>109</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="173.25" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A61" s="21">
         <v>53</v>
       </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="49"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61" s="21" t="s">
         <v>61</v>
@@ -4712,31 +4637,31 @@
         <v>109</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="141.75" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="135" x14ac:dyDescent="0.4">
       <c r="A62" s="21">
         <v>54</v>
       </c>
-      <c r="B62" s="58"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>61</v>
@@ -4745,23 +4670,29 @@
         <v>109</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B56:B62"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C22:C24"/>
@@ -4776,12 +4707,6 @@
     <mergeCell ref="B9:B32"/>
     <mergeCell ref="C56:C58"/>
     <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
@@ -4895,7 +4820,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E1:I8 E63:I1048576 E9:F62 I9:I62</xm:sqref>
+          <xm:sqref>E1:I8 E9:F62 I9:I62 E63:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
